--- a/docs/design/schedule.xlsx
+++ b/docs/design/schedule.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>2）下发抄表定时：设置下发自动抄表的时间。</t>
   </si>
@@ -100,115 +100,119 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>1) 立即抄表, 可控制集中器开始全抄表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8) 重启集中器。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3) 从集中器读取所有表基础信息，放到临时的DBF数据表内。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 从集中器读取、查询最近一次的历史抄表数据，并可进行简单的统计(失败率, 成功率, 具体的失败列表等)。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4）通过集中器号和计量点从集中器中读取最近一次历史数据中的对应计量点的数据。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5） 集中器版本查询，包括集中器嵌入式软件版本、硬件版本查询。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2）通讯口：485通讯、Mbus通讯、USB通讯、红外通讯。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4）主站编号。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>串口调试助手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2）读取并修改热量表的误差值（目标热量表的各流量点都读取），可以将用户设置的对应流量点误差值写回热量表。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3）可读取并修改德鲁热量表的示值，如累积热量、累积流量。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3）集中器编号。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRC16校验值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对用户输入的帧进行CRC校验值计算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>累加和</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对用户输入的帧进行累加和(单纯累加和, 累加和结果取反加1)校验值计算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送与接收数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送用户输入的帧至总线, 接收并展示从总线返回的帧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能模块名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>热量表(包括CJ188 26831两种协议供用户选择)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手持机开发前期学习与熟悉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉界面搭建方法, 熟悉读取与设置GUI_EDIT的值, 熟悉DBF数据库的读取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>进行中</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1) 立即抄表, 可控制集中器开始全抄表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8) 重启集中器。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3) 从集中器读取所有表基础信息，放到临时的DBF数据表内。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2) 从集中器读取、查询最近一次的历史抄表数据，并可进行简单的统计(失败率, 成功率, 具体的失败列表等)。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4）通过集中器号和计量点从集中器中读取最近一次历史数据中的对应计量点的数据。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5） 集中器版本查询，包括集中器嵌入式软件版本、硬件版本查询。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2）通讯口：485通讯、Mbus通讯、USB通讯、红外通讯。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4）主站编号。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>串口调试助手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2）读取并修改热量表的误差值（目标热量表的各流量点都读取），可以将用户设置的对应流量点误差值写回热量表。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3）可读取并修改德鲁热量表的示值，如累积热量、累积流量。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3）集中器编号。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRC16校验值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对用户输入的帧进行CRC校验值计算</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>累加和</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对用户输入的帧进行累加和(单纯累加和, 累加和结果取反加1)校验值计算</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送与接收数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送用户输入的帧至总线, 接收并展示从总线返回的帧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总需求</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能模块名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>热量表(包括CJ188 26831两种协议供用户选择)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>手持机开发前期学习与熟悉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟悉界面搭建方法, 熟悉读取与设置GUI_EDIT的值, 熟悉DBF数据库的读取</t>
+    <t>已完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -216,7 +220,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,13 +263,6 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="等线"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -349,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -369,54 +366,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -432,7 +426,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -696,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -709,61 +703,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>48</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="6">
         <v>4</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="11">
         <v>42548</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="11">
         <v>42551</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -772,48 +766,52 @@
       <c r="E3" s="4">
         <v>2</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="11">
         <v>42552</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="11">
         <v>42553</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="4">
         <v>3</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="F4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="12">
+        <v>42563</v>
+      </c>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
@@ -825,57 +823,65 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="39" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="4">
-        <v>12</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="18">
+        <v>7</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="11">
         <v>42556</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="11">
+        <v>42564</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="4">
-        <v>8</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="11">
+        <v>42562</v>
+      </c>
+      <c r="H9" s="11">
+        <v>42564</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -885,13 +891,13 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
@@ -901,165 +907,161 @@
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="4">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="E12" s="14">
+        <v>5</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="4">
-        <v>3</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E13" s="16"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8" t="s">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="4">
-        <v>3</v>
+      <c r="E16" s="14">
+        <v>2</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="19">
-        <v>1</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E17" s="15"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="20"/>
+        <v>33</v>
+      </c>
+      <c r="E18" s="15"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="E19" s="16"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>45</v>
+      <c r="C20" s="19" t="s">
+        <v>44</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E21" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8" t="s">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -1073,29 +1075,29 @@
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="39" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8" t="s">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="17">
         <v>1</v>
       </c>
       <c r="F25" s="4"/>
@@ -1103,29 +1105,29 @@
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
       <c r="D26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="E26" s="17"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="8" t="s">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="20">
         <v>1</v>
       </c>
       <c r="F27" s="4"/>
@@ -1133,75 +1135,76 @@
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="12"/>
+        <v>28</v>
+      </c>
+      <c r="E28" s="20"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="12"/>
+      <c r="E29" s="20"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="12"/>
+      <c r="E30" s="20"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="12"/>
+      <c r="E31" s="20"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="11">
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="8">
         <f>SUM(E2:E31)</f>
-        <v>77</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E16:E19"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E17:E19"/>
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="C3:C10"/>
